--- a/insight/manuscript/Insight Lit Review.xlsx
+++ b/insight/manuscript/Insight Lit Review.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EF76117-86A8-4630-A784-94A68E965D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apapp\Documents\GitHub\analysis_risk\insight\manuscript\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C2549C-D8B9-497A-8E3F-47561731EF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="143">
   <si>
     <t>Title</t>
   </si>
@@ -84,9 +89,6 @@
     <t>Random forest model allows for prediction and beats baseline predictor (breathylzer construct AMI--Addiction Monitoring Index)</t>
   </si>
   <si>
-    <t>"While healthcare at large has seen successfully applications of machine learning [9], the domain of addiction care has not been investigated thoroughly" "proof-of-concept that alcohol abuse patterns are to some degree predictable several days in advance, thereby making them preventable"</t>
-  </si>
-  <si>
     <t>The baseline predictor is a relatively accurate indication of what extent exponential smoothing (as shown in Figure 1) can be used to explain the variance in the data set. Looking at the results, the baseline predictor can explain 75.5% of the variance in the data. It is not unreasonable, then, to suggest that exponential smoothing can explain most of that variance. Hence, we argue that a model that can explain more of the variance must be forecasting better than the baseline predictor.</t>
   </si>
   <si>
@@ -169,9 +171,6 @@
   </si>
   <si>
     <t>self-efficacy measured in modules; abstinence confidence questionnaire</t>
-  </si>
-  <si>
-    <t>"Whereas patients’ self-rating of treatment processes was insufficiently predictive, the TOPPS strongly predicted four-year abstinence probability at any of the 3 time-points". Both factors predictive</t>
   </si>
   <si>
     <t>Effect of Brief Mindfulness Practice on Self-Reported Affect, Craving, and Smoking: A Pilot Randomized Controlled Trial Using Ecological Momentary Assessment</t>
@@ -340,9 +339,6 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>personal characteristics like confidence to resist high-risk situations significantly associated with nonremission, suggesting insight</t>
-  </si>
-  <si>
     <t>Sixteen-year changes and stable remission among treated and untreated individuals with alcohol use disorders</t>
   </si>
   <si>
@@ -367,9 +363,6 @@
     <t>both models yielding a success rate higher than 50% (decision trees 77%, bayesian networks 73%, discriminant analysis 42%)</t>
   </si>
   <si>
-    <t>Need access to full</t>
-  </si>
-  <si>
     <t>Using machine learning to predict heavy drinking during outpatient alcohol treatment</t>
   </si>
   <si>
@@ -385,25 +378,104 @@
     <t>Models predicting heavy alcohol use during the first and last months of treatment showed internal cross-validation area under the curve (AUC) scores ranging from 0.67 to 0.74. The model predicting between-session heavy drinking showed strong classification accuracy in internal cross-validation (AUC = 0.89)</t>
   </si>
   <si>
-    <t>Code used to train models at www. github.com/roblabyale/adtxpred and code for data processing available upon request; more supplemental material at https://onlinelibrary.wiley.com/doi/abs/10.1111/acer.14802</t>
+    <t>need future research that focuses on prediction, not just identification. Also, more individual-focus: Only one study looked at making individual level identifications, which will probably be of most value for clinical work and the launch of just-in-time interventions in the future"</t>
+  </si>
+  <si>
+    <t>The sensors used to extract relevant features for analysis in the identified studies are typically related to time, movement patterns, and psychomotor functioning</t>
+  </si>
+  <si>
+    <t>Primary motive was to develop a tool that could identify unhealthy drinking</t>
+  </si>
+  <si>
+    <t>Main motive is to predict future alcohol relapses. "While healthcare at large has seen successfully applications of machine learning [9], the domain of addiction care has not been investigated thoroughly" "proof-of-concept that alcohol abuse patterns are to some degree predictable several days in advance, thereby making them preventable"</t>
+  </si>
+  <si>
+    <t>"A client's level of confidence in coping with a high-risk situation also determines the likelihood of relapse. Drawn from social cognitive theory (Bandura, 1986), self-efficacy in this context refers to an individual's confidence in his or her ability to perform a behavior that will deal effectively with the high-risk situation"</t>
+  </si>
+  <si>
+    <t>Future directions-- "The client's ability to cope effectively with a high-risk situation is crucial to modifying clients' substance use expectancies and self-efficacy"; this is how we could eventually use an app as an adjunct to clinical support</t>
+  </si>
+  <si>
+    <t>Relapse prevention: Maintenance strategies in the treatment of addictive behaviors</t>
+  </si>
+  <si>
+    <t>predictive for early treatment heavy drinking: Alcohol Abstinence Self-Efficacy—total temptation score, Alcohol Abstinence Self-Efficacy—total confidence score</t>
+  </si>
+  <si>
+    <t>"Whereas patients’ self-rating of treatment processes was insufficiently predictive, the TOPPS (Therapy Orientation by Process Prediction Score) strongly predicted four-year abstinence probability at any of the 3 time-points" (3 weeks, 6 months, and 12 months). *TOPPS Includes abstinence confidence</t>
+  </si>
+  <si>
+    <t>The use and impact of self-monitoring on substance use outcomes: A descriptive systematic review</t>
+  </si>
+  <si>
+    <t>"Self-Monitoring (SM), the act of observing ones' own behavior, has been used in substance use treatment because SM may bring conscious awareness to automatized substance use behaviors"</t>
+  </si>
+  <si>
+    <t>"SM was shown to have a helpful effect (e.g., reducing substance use) 29% of the time; to have no effect 63.0% of the time; and to be detrimental in 8.0% of analyses"</t>
+  </si>
+  <si>
+    <t>"under certain circumstances, as the potential to be a low-cost, low-risk research and early intervention strategy for substance users"… "SM's helpful effects were associated with methodological characteristics including longer monitoring and Phone/IVR and EMA/Computer methodologies compared to Paper/Penci" + non-treatment seekers</t>
+  </si>
+  <si>
+    <t>personal characteristics like confidence to resist high-risk situations significantly associated with nonremission</t>
+  </si>
+  <si>
+    <t>Looking for: support for continuous self-monitoring, evidence that self-efficacy is predictive</t>
+  </si>
+  <si>
+    <t>Wearable Sensor and Mobile App–Based mHealth Approach for Investigating Substance Use and Related Factors in Daily Life: Protocol for an Ecological Momentary Assessment Study</t>
+  </si>
+  <si>
+    <t>"Participants of this study were people with health risks due to alcohol or methamphetamine use. They were required to record their daily substance use and related factors on the self-monitoring app and to always wear a Fitbit for 8 weeks, which collected the following data: (1) heart rate per minute, (2) sleep duration per day, (3) sleep stages per day, (4) the number of steps per day, and (5) the amount of physical activity per day. Fitbit data will first be visualized for data analysis to confirm typical Fitbit data patterns for individual users. Next, machine learning and statistical analysis methods will be performed to create a detection model for substance use based on the combined Fitbit and self-monitoring data. The model will be tested based on 5-fold cross-validation, and further preprocessing and machine learning methods will be conducted based on the preliminary results. The usability and feasibility of this approach will also be evaluated."</t>
+  </si>
+  <si>
+    <t>High confidentiality and convenience</t>
+  </si>
+  <si>
+    <t>A smartphone app to reduce excessive alcohol consumption: Identifying the effectiveness of intervention components in a factorial randomised control trial</t>
+  </si>
+  <si>
+    <t>"Self-monitoring is a widespread approach in mHealth apps in the field of substance use. Moreover, self-monitoring is low-intensive, feasible, and effective for reducing substance use [42]. App content in this study were developed based on previous studies that implemented a web-based relapse prevention program in which treatment effectiveness was already validated [43]. The newly developed self-monitoring apps used validated content and user interfaces from the previous study."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluate intervention components of an alcohol reduction app: Drink Less;  Modules were: Self-monitoring and Feedback, Action Planning, Identity Change, Normative Feedback, and Cognitive Bias Re-training. Outcome measures were: change in weekly alcohol consumption (primary); full AUDIT score, app usage, app usability (secondary). </t>
+  </si>
+  <si>
+    <t>"There were no significant main effects of the intervention modules on change in weekly alcohol consumption or AUDIT score. There were two-way interactions between enhanced Normative Feedback and Cognitive Bias Re-training on weekly alcohol consumption (F = 4.68, p = 0.03) and between enhanced Self-monitoring and Feedback and Action Planning on AUDIT score (F = 5.82, p = 0.02). Enhanced Self-monitoring and Feedback was used significantly more often and rated significantly more positively for helpfulness, satisfaction and recommendation to others than the minimal version. To conclude, in an evaluation of the Drink Less smartphone application, the combination of enhanced Normative Feedback and Cognitive Bias Re-training and enhanced Self-monitoring and Feedback and Action Planning yielded improvements in alcohol-related outcomes after 4-weeks."</t>
+  </si>
+  <si>
+    <t>Sci Rep</t>
+  </si>
+  <si>
+    <t>Identification of behaviour change techniques to reduce excessive alcohol consumption</t>
+  </si>
+  <si>
+    <t> In brief interventions, promoting self-monitoring is associated with improved outcomes</t>
+  </si>
+  <si>
+    <t>Effect of a web-based relapse prevention program on abstinence among Japanese drug users: A pilot randomized controlled trial</t>
+  </si>
+  <si>
+    <t>"The study was a pilot randomized controlled trial comprised of 48 psychiatric outpatients diagnosed with drug use disorder. The participants were randomly assigned to an eight-week, six-session web-based relapse prevention program (an intervention group) or only web-based self-monitoring (a control group). The primary outcome was the duration of abstinence from a primary drug during the intervention and relapse risk. Secondary outcomes included motivation to change, self-efficacy, and money spent on drugs. The outcomes, except for the duration of abstinence during the intervention, were assessed at baseline, 2-, 5-, and 8-months. Program completion rate was also assessed."</t>
+  </si>
+  <si>
+    <t>"No significant difference was observed between the intervention and the control groups for the primary and the secondary outcomes. The effect size of the duration of abstinence during the intervention was d = 0.42, which was comparable to previous studies....e-SMARPP failed to demonstrate efficacy, however, is potentially helpful for enhancing abstinence. "</t>
+  </si>
+  <si>
+    <t>"The low attrition rate may suggest the acceptance and feasibility of the program."</t>
+  </si>
+  <si>
+    <t>Not impressed with this paper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -444,8 +516,37 @@
       <color rgb="FF292B2C"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1C1D1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,25 +555,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -486,60 +581,90 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -852,25 +977,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="54.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="31.85546875" customWidth="1"/>
     <col min="7" max="7" width="39.85546875" customWidth="1"/>
-    <col min="8" max="8" width="58.5703125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="58.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -891,32 +1016,35 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="7">
         <v>2020</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="60.75">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="7">
         <v>2019</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -931,472 +1059,584 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="J3" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="20.25">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="B4" s="2">
         <v>2002</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="71.25">
-      <c r="A5" s="6" t="s">
-        <v>21</v>
+      <c r="G4" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>2015</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="13" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30.75">
-      <c r="A6" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="B6" s="2">
         <v>2022</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="41.25">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
+    <row r="7" spans="1:10" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="13" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="180.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="153">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="B8" s="2">
         <v>2017</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="13" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51">
-      <c r="A9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="B9" s="2">
         <v>2008</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="30.75">
-      <c r="A10" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="B10" s="2">
         <v>2016</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="51">
-      <c r="A11" s="2" t="s">
-        <v>49</v>
+    <row r="11" spans="1:10" ht="57" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="2">
         <v>2023</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="15" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="180.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="153">
-      <c r="A12" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="B12" s="2">
         <v>2018</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.25">
-      <c r="A13" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="B13" s="2">
         <v>2020</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="111.75">
-      <c r="A14" s="8" t="s">
-        <v>62</v>
+    <row r="14" spans="1:10" ht="124.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="B14" s="2">
         <v>2018</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="135.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="122.25">
-      <c r="A15" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="B15" s="2">
         <v>2020</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25">
-      <c r="A16" s="2" t="s">
-        <v>70</v>
+      <c r="F15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="B16" s="2">
         <v>2018</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="122.25">
-      <c r="A17" s="2" t="s">
-        <v>72</v>
+    <row r="17" spans="1:8" ht="135.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="B17" s="2">
         <v>2022</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="41.25">
-      <c r="A18" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="B18" s="2">
         <v>2014</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="81">
-      <c r="A19" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="B19" s="2">
         <v>2020</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="F19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="11" t="s">
+    </row>
+    <row r="20" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30.75">
-      <c r="A20" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="B20" s="2">
         <v>2020</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="79.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="71.25">
-      <c r="A21" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="B21" s="2">
         <v>2005</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="11"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>92</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="51">
-      <c r="A22" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="B22" s="2">
         <v>2018</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="F22" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="41.25">
-      <c r="A23" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="B23" s="2">
         <v>2003</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="41.25">
-      <c r="A24" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="B24" s="2">
         <v>2005</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30.75">
-      <c r="A25" s="10" t="s">
-        <v>106</v>
+      <c r="F24" s="5"/>
+      <c r="G24" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="B25" s="2">
         <v>2007</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="90.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="91.5">
-      <c r="A26" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="B26" s="2">
         <v>2022</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>117</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="17">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="158.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="17">
+        <v>2023</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="304.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="17">
+        <v>2018</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="17">
+        <v>2012</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="23" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="23">
+        <v>2020</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="18"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G26" r:id="rId1" xr:uid="{B6838F84-962A-46FA-B169-9843E2B650DA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/insight/manuscript/Insight Lit Review.xlsx
+++ b/insight/manuscript/Insight Lit Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apapp\Documents\GitHub\analysis_risk\insight\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C2549C-D8B9-497A-8E3F-47561731EF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CE25D1-6512-4869-8A83-29D20A3C979C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="159">
   <si>
     <t>Title</t>
   </si>
@@ -466,6 +466,54 @@
   </si>
   <si>
     <t>Not impressed with this paper</t>
+  </si>
+  <si>
+    <t>Using smartphones to decrease substance use via self-monitoring and recovery support: study protocol for a randomized control trial</t>
+  </si>
+  <si>
+    <t>Trials</t>
+  </si>
+  <si>
+    <t>study protocol</t>
+  </si>
+  <si>
+    <t>Using Self-Monitoring: Implementation of Collaborative Empiricism in Cognitive-Behavioral Therapy</t>
+  </si>
+  <si>
+    <t>Cognitive and Behavioral Practice</t>
+  </si>
+  <si>
+    <t>"Multiple studies have reported that self-monitoring can have reactive beneficial (therapeutic) effects for a wide variety of psychological disorders, symptoms, and problem behaviors including: smoking (McFall, 1970); ruminative thinking (Frederiksen, 1975); suicidal ideation (Clum &amp; Curtin, 1993); internalizing problems in children (Beidel et al., 1991, Stark et al., 1987); hallucinations (Rutner &amp; Bugle, 1969); weight loss (Germann et al., 2007, Kirschenbaum et al., 2005); body dissatisfaction (Cash &amp; Hrabosky, 2003); inappropriate social behaviors for youth with Asperger's syndrome (State &amp; Kern, 2012); and self-regulation of homework completion (Schmitz &amp; Perels, 2011) (For further review see Kazdin, 1974, Humphreys et al., 2009). For example, when depressed clients are asked to record the self-critical thoughts they have each hour, they generally experience a decline in the number of such thoughts (A. Beck et al., 1979). Work with alcohol and drug treatments have looked at Internet-based interventions that include self-monitoring and personalized feedback: Findings are inconsistent but randomized controlled trials are needed (Bewick et al., 2008, Cohn et al., 2011)."</t>
+  </si>
+  <si>
+    <t>The effectiveness of web-based interventions designed to decrease alcohol consumption — A systematic review</t>
+  </si>
+  <si>
+    <t>Preventive Medicine</t>
+  </si>
+  <si>
+    <t>Promoting Behavior Change from Alcohol Use Through Mobile Technology: The Future of Ecological Momentary Assessment</t>
+  </si>
+  <si>
+    <t>We don't know that self-monitoring is effective at decreasing problematic alcohol use, but it may be effective at predicting it</t>
+  </si>
+  <si>
+    <t>"inconsistent evidence on the effectiveness of eIectronic screening and brief intervention (eSBI) for alcohol use"</t>
+  </si>
+  <si>
+    <t>Review--out of 191 articles considered, only 10 included and only 1 randomized control trial</t>
+  </si>
+  <si>
+    <t>Alcoholism: Clinical and Experimental Research</t>
+  </si>
+  <si>
+    <t>"Interactive and mobile technologies (i.e., smartphones such as Blackberries, iPhones, and palm-top computers) show promise as an efficacious and cost-effective means of communicating health-behavior risks, improving public health outcomes, and accelerating behavior change"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apps available on Apple Itunes </t>
+  </si>
+  <si>
+    <t>"few apps addressed alcohol-use behavior change or recovery. Aside from tracking drinking consumption, a minority utilized empirically based components of alcohol treatment. Some apps claimed they could serve as an intervention; however, no empirical evidence was provided."</t>
   </si>
 </sst>
 </file>
@@ -584,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -607,16 +655,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -634,13 +676,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,7 +699,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -977,15 +1016,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="54.140625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
@@ -995,7 +1034,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1021,7 +1060,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="7">
@@ -1041,7 +1080,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="102" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7">
@@ -1059,18 +1098,18 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>116</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2">
@@ -1082,15 +1121,15 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="2">
@@ -1108,15 +1147,15 @@
       <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="2">
@@ -1133,7 +1172,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="2">
@@ -1148,12 +1187,12 @@
       <c r="G7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="180.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="2">
@@ -1171,15 +1210,15 @@
       <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="2">
@@ -1191,16 +1230,16 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>121</v>
       </c>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="2">
@@ -1215,7 +1254,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="57" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="2">
@@ -1229,15 +1268,15 @@
         <v>49</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="180.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="2">
@@ -1252,15 +1291,15 @@
       <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B13" s="2">
@@ -1275,7 +1314,7 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="124.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="2">
@@ -1296,7 +1335,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="135.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="2">
@@ -1318,7 +1357,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="2">
@@ -1333,7 +1372,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="135.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="2">
@@ -1354,7 +1393,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="2">
@@ -1375,7 +1414,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B19" s="2">
@@ -1398,7 +1437,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B20" s="2">
@@ -1415,7 +1454,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="79.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B21" s="2">
@@ -1426,13 +1465,13 @@
       <c r="E21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="23" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B22" s="2">
@@ -1447,13 +1486,13 @@
       <c r="E22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B23" s="2">
@@ -1466,13 +1505,13 @@
       <c r="E23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="25" t="s">
         <v>126</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B24" s="2">
@@ -1484,12 +1523,12 @@
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="2">
@@ -1510,7 +1549,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="90.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B26" s="2">
@@ -1522,118 +1561,189 @@
       <c r="D26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="19" t="s">
         <v>111</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="15">
         <v>2005</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="15">
         <v>2021</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="24" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="158.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="304.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="15">
         <v>2018</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="15">
         <v>2012</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="23" customFormat="1" ht="135" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:8" s="20" customFormat="1" ht="135" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="20">
         <v>2020</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="15">
+        <v>2017</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="20" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="20">
+        <v>2013</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="20">
+        <v>2008</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" s="20" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" s="20">
+        <v>2011</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/insight/manuscript/Insight Lit Review.xlsx
+++ b/insight/manuscript/Insight Lit Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apapp\Documents\GitHub\analysis_risk\insight\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CE25D1-6512-4869-8A83-29D20A3C979C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC687A68-B424-40F1-9E8F-FDA2F54B06AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1018,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
